--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:00:08</t>
+          <t>2025-08-27 12:34:57</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:34:57</t>
+          <t>2025-08-27 16:07:34</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:07:34</t>
+          <t>2025-08-27 16:53:19</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:53:19</t>
+          <t>2025-08-27 17:01:40</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:01:40</t>
+          <t>2025-08-27 17:11:34</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:11:34</t>
+          <t>2025-08-27 17:58:21</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:58:21</t>
+          <t>2025-08-29 10:48:50</t>
         </is>
       </c>
     </row>
